--- a/src/main/resources/assets/template/data_import_template.xlsx
+++ b/src/main/resources/assets/template/data_import_template.xlsx
@@ -19,28 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Column 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column 2</t>
-  </si>
-  <si>
-    <t>Column 3</t>
-  </si>
-  <si>
-    <t>Column 4</t>
-  </si>
-  <si>
-    <t>Column 5</t>
-  </si>
-  <si>
-    <t>Column 6</t>
-  </si>
-  <si>
-    <t>Column 7</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Data Import Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interference</t>
+  </si>
+  <si>
+    <t>Unuseful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -83,8 +92,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -365,38 +379,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.58203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.58203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.58203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/assets/template/data_import_template.xlsx
+++ b/src/main/resources/assets/template/data_import_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Data Import Template</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>Unuseful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,9 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,58 +385,62 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.58203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.58203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.58203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
